--- a/xlsx/a69_f08_aUPPachuca.xlsx
+++ b/xlsx/a69_f08_aUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2023\ELY\Planeación\Transparencia\1° trimestre\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414ACB41-1EFB-494F-99B8-0098A5C82B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -3403,7 +3397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -3768,14 +3762,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -40594,10 +40588,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D480" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D480">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L201">
       <formula1>Hidden_211</formula1>
     </dataValidation>
   </dataValidations>
@@ -40606,7 +40600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -40681,7 +40675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -40756,7 +40750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -40831,7 +40825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -40906,7 +40900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -40981,7 +40975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -41056,7 +41050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -41101,7 +41095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41169,7 +41163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41192,7 +41186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -41267,7 +41261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -41312,11 +41306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="C457" sqref="C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42250,12 +42244,8 @@
       <c r="B47" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="6" t="s">
         <v>415</v>
       </c>
@@ -42870,12 +42860,8 @@
       <c r="B78" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C78" s="7">
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <v>0</v>
-      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="6" t="s">
         <v>415</v>
       </c>
@@ -43130,12 +43116,8 @@
       <c r="B91" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C91" s="7">
-        <v>0</v>
-      </c>
-      <c r="D91" s="7">
-        <v>0</v>
-      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="6" t="s">
         <v>415</v>
       </c>
@@ -43370,12 +43352,8 @@
       <c r="B103" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C103" s="7">
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <v>0</v>
-      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="6" t="s">
         <v>415</v>
       </c>
@@ -43850,12 +43828,8 @@
       <c r="B127" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C127" s="7">
-        <v>0</v>
-      </c>
-      <c r="D127" s="7">
-        <v>0</v>
-      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="6" t="s">
         <v>415</v>
       </c>
@@ -46650,12 +46624,8 @@
       <c r="B267" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C267" s="7">
-        <v>0</v>
-      </c>
-      <c r="D267" s="7">
-        <v>0</v>
-      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
       <c r="E267" s="6" t="s">
         <v>415</v>
       </c>
@@ -46670,12 +46640,8 @@
       <c r="B268" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C268" s="7">
-        <v>0</v>
-      </c>
-      <c r="D268" s="7">
-        <v>0</v>
-      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
       <c r="E268" s="6" t="s">
         <v>415</v>
       </c>
@@ -50450,12 +50416,8 @@
       <c r="B457" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C457" s="7">
-        <v>0</v>
-      </c>
-      <c r="D457" s="7">
-        <v>0</v>
-      </c>
+      <c r="C457" s="7"/>
+      <c r="D457" s="7"/>
       <c r="E457" s="6" t="s">
         <v>415</v>
       </c>
@@ -50850,7 +50812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -50925,7 +50887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -51000,7 +50962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
